--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>958392.2617101991</v>
+        <v>963991.7627800829</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1667317.432543015</v>
+        <v>1724218.845698042</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7966425.477977806</v>
+        <v>7798735.927490102</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7803098.925367224</v>
+        <v>7850531.41944711</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>352.4190666179372</v>
       </c>
       <c r="G2" t="n">
-        <v>394.6294148526979</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>87.95308749070804</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>318.8346522669064</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,10 +955,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>80.34430318794952</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1057,25 +1059,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,13 +1183,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>187.4532254891791</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -1196,10 +1198,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>365.1171130109819</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1294,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>61.80016981285896</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>409.0311279568768</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>67.87349952349061</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1531,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>37.61298457733328</v>
+        <v>32.61550536308975</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>191.6541629312305</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1768,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>113.1667354347866</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>157.0292608572034</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1889,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>319.6806636070547</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>159.3149947016329</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>223.866617274486</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2084,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>403.3721075305717</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2126,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>71.21176895789225</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2236,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>28.43674363283122</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>24.62728190311162</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2302,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>229.2671475085637</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2330,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>0.7250161334533868</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2491,13 +2493,13 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>62.34689537119918</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>127.0733052664699</v>
       </c>
       <c r="D26" t="n">
-        <v>280.7015777994309</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2716,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>100.3434053864687</v>
+        <v>61.39345098864458</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -2731,10 +2733,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2792,25 +2794,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>81.78256080897403</v>
+        <v>128.2899067660541</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2953,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>141.1952879668184</v>
+        <v>40.48474733465077</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
@@ -2971,7 +2973,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3034,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>169.5692511015501</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
-        <v>374.5380692214935</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="33">
@@ -3238,16 +3240,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>114.7890777533883</v>
       </c>
       <c r="U34" t="n">
-        <v>116.876383545772</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3278,7 +3280,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>54.25015388424831</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3311,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>312.9972678808082</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3430,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,10 +3444,10 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>49.85408342098169</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>35.95701122794165</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>316.2793233873145</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>146.263296403799</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3712,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>121.5013198905371</v>
       </c>
     </row>
     <row r="41">
@@ -3743,19 +3745,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>318.3750835816231</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3794,7 +3796,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>338.6857412035168</v>
@@ -3803,10 +3805,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>156.5696404832031</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,13 +3915,13 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>13.86039560144239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3946,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>114.789077753388</v>
       </c>
       <c r="U43" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3977,10 +3979,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>343.811603253609</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3989,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>409.0311279568768</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>136.9537457384598</v>
+        <v>29.87015693484848</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>151.2037672717815</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,13 +4036,13 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
         <v>392.5258019886049</v>
@@ -4068,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>118.5388453083828</v>
       </c>
       <c r="H45" t="n">
-        <v>87.41444223540508</v>
+        <v>84.32029961295804</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820752</v>
+        <v>37.86294566882093</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>3.786554340598073</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>127.6305556124799</v>
       </c>
       <c r="T45" t="n">
-        <v>175.2139736830806</v>
+        <v>173.9226398638123</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9625118881446</v>
+        <v>207.9414346223241</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4132,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>55.24009321362232</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>196.1071114281789</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>109.8315615974292</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.595994386773</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.595994386773</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D2" t="n">
-        <v>923.1548656034408</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="E2" t="n">
-        <v>923.1548656034408</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="F2" t="n">
-        <v>923.1548656034408</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G2" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H2" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J2" t="n">
         <v>206.7689006129436</v>
@@ -4352,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T2" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U2" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V2" t="n">
-        <v>2080.089775129883</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W2" t="n">
-        <v>1709.09074009817</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X2" t="n">
-        <v>1709.09074009817</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y2" t="n">
-        <v>1709.09074009817</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>861.4851108441464</v>
+        <v>1586.986833370171</v>
       </c>
       <c r="C3" t="n">
-        <v>710.8308804042387</v>
+        <v>1436.332602930263</v>
       </c>
       <c r="D3" t="n">
-        <v>580.741913025719</v>
+        <v>1306.243635551744</v>
       </c>
       <c r="E3" t="n">
-        <v>444.2954221366068</v>
+        <v>1169.797144662632</v>
       </c>
       <c r="F3" t="n">
-        <v>319.8636160197386</v>
+        <v>1045.365338545763</v>
       </c>
       <c r="G3" t="n">
-        <v>199.803798091603</v>
+        <v>925.3055206176277</v>
       </c>
       <c r="H3" t="n">
-        <v>111.5063816922039</v>
+        <v>837.0081042182287</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411553</v>
+        <v>787.6208502301403</v>
       </c>
       <c r="J3" t="n">
-        <v>175.2341099238429</v>
+        <v>900.7358324498676</v>
       </c>
       <c r="K3" t="n">
-        <v>494.9732559860694</v>
+        <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>494.9732559860694</v>
+        <v>1704.041064410407</v>
       </c>
       <c r="M3" t="n">
-        <v>568.1699486069232</v>
+        <v>2331.812714037089</v>
       </c>
       <c r="N3" t="n">
-        <v>1223.947919817482</v>
+        <v>2589.436102614795</v>
       </c>
       <c r="O3" t="n">
-        <v>1740.468202408463</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="P3" t="n">
-        <v>2146.089571124861</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Q3" t="n">
-        <v>2380.454662679751</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R3" t="n">
-        <v>2356.537619577816</v>
+        <v>3082.039342103841</v>
       </c>
       <c r="S3" t="n">
-        <v>2221.606942477685</v>
+        <v>2947.10866500371</v>
       </c>
       <c r="T3" t="n">
-        <v>2044.623130676593</v>
+        <v>2770.124853202618</v>
       </c>
       <c r="U3" t="n">
-        <v>1834.559987355235</v>
+        <v>2560.06170988126</v>
       </c>
       <c r="V3" t="n">
-        <v>1612.019985726302</v>
+        <v>2337.521708252327</v>
       </c>
       <c r="W3" t="n">
-        <v>1381.902739859589</v>
+        <v>2107.404462385613</v>
       </c>
       <c r="X3" t="n">
-        <v>1192.595662209601</v>
+        <v>1918.097384735625</v>
       </c>
       <c r="Y3" t="n">
-        <v>1013.281445285108</v>
+        <v>1738.783167811132</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>321.165748153993</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9606302199822</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D4" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E4" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F4" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G4" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H4" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I4" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4528,10 +4530,10 @@
         <v>963.5661502456679</v>
       </c>
       <c r="X4" t="n">
-        <v>729.485828028651</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y4" t="n">
-        <v>506.3737668452943</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.948458533077</v>
+        <v>1625.211129635568</v>
       </c>
       <c r="C5" t="n">
-        <v>1201.948458533077</v>
+        <v>1232.035628138499</v>
       </c>
       <c r="D5" t="n">
-        <v>1201.948458533077</v>
+        <v>846.5944993551666</v>
       </c>
       <c r="E5" t="n">
-        <v>799.3649336496217</v>
+        <v>846.5944993551666</v>
       </c>
       <c r="F5" t="n">
-        <v>799.3649336496217</v>
+        <v>846.5944993551666</v>
       </c>
       <c r="G5" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H5" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4601,16 +4603,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2080.089775129883</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W5" t="n">
-        <v>1998.933913323873</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="X5" t="n">
-        <v>1998.933913323873</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="Y5" t="n">
-        <v>1602.443204244474</v>
+        <v>2025.705875346965</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L6" t="n">
-        <v>494.9732559860694</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M6" t="n">
-        <v>1122.744905612751</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N6" t="n">
-        <v>1629.56928853388</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O6" t="n">
-        <v>2146.089571124861</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P6" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D7" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E7" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F7" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G7" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H7" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I7" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4753,22 +4755,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U7" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W7" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y7" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1340.285575440613</v>
+        <v>979.0728748920524</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.285575440613</v>
+        <v>585.897373394983</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.285575440613</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="E8" t="n">
-        <v>937.702050557157</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="F8" t="n">
-        <v>937.702050557157</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G8" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H8" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4829,25 +4831,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>2901.449916432349</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T8" t="n">
-        <v>2677.949313991765</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U8" t="n">
-        <v>2422.196584426364</v>
+        <v>2878.616779077985</v>
       </c>
       <c r="V8" t="n">
-        <v>2080.089775129883</v>
+        <v>2536.509969781504</v>
       </c>
       <c r="W8" t="n">
-        <v>1709.09074009817</v>
+        <v>2165.510934749791</v>
       </c>
       <c r="X8" t="n">
-        <v>1340.285575440613</v>
+        <v>1776.058329682848</v>
       </c>
       <c r="Y8" t="n">
-        <v>1340.285575440613</v>
+        <v>1379.567620603449</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K9" t="n">
-        <v>84.60386270860994</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L9" t="n">
-        <v>568.1699486069232</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M9" t="n">
-        <v>568.1699486069232</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N9" t="n">
-        <v>1223.947919817482</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O9" t="n">
-        <v>1740.468202408463</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P9" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D10" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E10" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F10" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G10" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H10" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I10" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4990,22 +4992,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T10" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U10" t="n">
-        <v>611.4288749521137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V10" t="n">
-        <v>345.4495297729379</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1285.351823183204</v>
+        <v>860.7230119994447</v>
       </c>
       <c r="C11" t="n">
-        <v>892.1763216861347</v>
+        <v>860.7230119994447</v>
       </c>
       <c r="D11" t="n">
-        <v>892.1763216861347</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="E11" t="n">
-        <v>892.1763216861347</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="F11" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5057,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>3037.397294778008</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T11" t="n">
-        <v>2813.896692337425</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U11" t="n">
-        <v>2813.896692337425</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V11" t="n">
-        <v>2471.789883040943</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W11" t="n">
-        <v>2471.789883040943</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X11" t="n">
-        <v>2082.337277974</v>
+        <v>1319.638135031226</v>
       </c>
       <c r="Y11" t="n">
-        <v>1685.846568894601</v>
+        <v>923.1474259518275</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5117,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K12" t="n">
-        <v>346.9752758473783</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L12" t="n">
-        <v>830.5413617456916</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P12" t="n">
         <v>2380.454662679751</v>
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D13" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E13" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F13" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G13" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5227,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U13" t="n">
-        <v>611.4288749521137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V13" t="n">
-        <v>345.4495297729379</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y13" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1687.93534806666</v>
+        <v>917.7147965422296</v>
       </c>
       <c r="C14" t="n">
-        <v>1294.75984656959</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="D14" t="n">
-        <v>1294.75984656959</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E14" t="n">
-        <v>892.1763216861347</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F14" t="n">
-        <v>475.2818832161124</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G14" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5294,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3067.963471491298</v>
+        <v>3073.011430293564</v>
       </c>
       <c r="S14" t="n">
-        <v>3067.963471491298</v>
+        <v>3073.011430293564</v>
       </c>
       <c r="T14" t="n">
-        <v>3067.963471491298</v>
+        <v>3073.011430293564</v>
       </c>
       <c r="U14" t="n">
-        <v>3067.963471491298</v>
+        <v>2817.258700728163</v>
       </c>
       <c r="V14" t="n">
-        <v>3067.963471491298</v>
+        <v>2475.151891431681</v>
       </c>
       <c r="W14" t="n">
-        <v>2874.373407924399</v>
+        <v>2104.152856399969</v>
       </c>
       <c r="X14" t="n">
-        <v>2484.920802857455</v>
+        <v>1714.700251333025</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.430093778056</v>
+        <v>1318.209542253627</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K15" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L15" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>1606.310991511064</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>2146.089571124861</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>2146.089571124861</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D16" t="n">
-        <v>62.11912770411553</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E16" t="n">
-        <v>62.11912770411553</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F16" t="n">
-        <v>62.11912770411553</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5461,25 +5463,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>849.2563164731562</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>613.5372646413903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U16" t="n">
-        <v>328.0984728832913</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y16" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2308.970930414981</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="C17" t="n">
-        <v>1915.795428917911</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="D17" t="n">
         <v>1757.180013910635</v>
@@ -5501,22 +5503,22 @@
         <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>937.7020505571572</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>524.5392950451603</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>200.4562446116509</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,34 +5533,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>3105.956385205776</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>3105.956385205776</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W17" t="n">
-        <v>3105.956385205776</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="X17" t="n">
-        <v>3105.956385205776</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="Y17" t="n">
-        <v>2709.465676126377</v>
+        <v>1757.180013910635</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5695,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="T19" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="U19" t="n">
-        <v>963.5661502456679</v>
+        <v>554.2263691201458</v>
       </c>
       <c r="V19" t="n">
-        <v>802.6419131733114</v>
+        <v>288.2470239409701</v>
       </c>
       <c r="W19" t="n">
-        <v>519.3115111044891</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X19" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1682.219165817866</v>
+        <v>840.7357579845172</v>
       </c>
       <c r="C20" t="n">
-        <v>1289.043664320797</v>
+        <v>447.5602564874478</v>
       </c>
       <c r="D20" t="n">
-        <v>1289.043664320797</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E20" t="n">
-        <v>886.4601394373415</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F20" t="n">
-        <v>469.5657009673192</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G20" t="n">
         <v>62.11912770411553</v>
@@ -5747,7 +5749,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5774,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.956385205776</v>
+        <v>2996.032391735851</v>
       </c>
       <c r="U20" t="n">
-        <v>2850.203655640375</v>
+        <v>2740.27966217045</v>
       </c>
       <c r="V20" t="n">
-        <v>2850.203655640375</v>
+        <v>2398.172852873969</v>
       </c>
       <c r="W20" t="n">
-        <v>2479.204620608662</v>
+        <v>2027.173817842256</v>
       </c>
       <c r="X20" t="n">
-        <v>2479.204620608662</v>
+        <v>1637.721212775313</v>
       </c>
       <c r="Y20" t="n">
-        <v>2082.713911529263</v>
+        <v>1241.230503695914</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>207.7175872278004</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>691.2836731261136</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M21" t="n">
-        <v>1319.055322752795</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>257.2002879645017</v>
+        <v>700.7618445611447</v>
       </c>
       <c r="C22" t="n">
-        <v>86.9951700304909</v>
+        <v>530.5567266271339</v>
       </c>
       <c r="D22" t="n">
-        <v>86.9951700304909</v>
+        <v>374.9236135296486</v>
       </c>
       <c r="E22" t="n">
-        <v>86.9951700304909</v>
+        <v>374.9236135296486</v>
       </c>
       <c r="F22" t="n">
-        <v>86.9951700304909</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G22" t="n">
-        <v>62.11912770411553</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5938,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W22" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X22" t="n">
-        <v>442.408306655803</v>
+        <v>729.485828028651</v>
       </c>
       <c r="Y22" t="n">
-        <v>442.408306655803</v>
+        <v>729.485828028651</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1919.518325348037</v>
+        <v>1205.680141491103</v>
       </c>
       <c r="C23" t="n">
-        <v>1526.342823850968</v>
+        <v>1205.680141491103</v>
       </c>
       <c r="D23" t="n">
-        <v>1294.75984656959</v>
+        <v>1205.680141491103</v>
       </c>
       <c r="E23" t="n">
-        <v>892.1763216861347</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="F23" t="n">
-        <v>475.2818832161124</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G23" t="n">
-        <v>62.11912770411553</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.224045677036</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.224045677036</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.224045677036</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2763.117236380554</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2392.118201348841</v>
       </c>
       <c r="X23" t="n">
-        <v>2716.503780138833</v>
+        <v>2002.665596281898</v>
       </c>
       <c r="Y23" t="n">
-        <v>2320.013071059434</v>
+        <v>1606.1748872025</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6068,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6175,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>900.5894882545576</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>615.1506964964586</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>615.1506964964586</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W25" t="n">
-        <v>615.1506964964586</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X25" t="n">
-        <v>381.0703742794417</v>
+        <v>180.1760807806529</v>
       </c>
       <c r="Y25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2040.716961182787</v>
+        <v>2270.978016700502</v>
       </c>
       <c r="C26" t="n">
-        <v>2040.716961182787</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D26" t="n">
         <v>1757.180013910635</v>
@@ -6221,7 +6223,7 @@
         <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J26" t="n">
         <v>206.7689006129436</v>
@@ -6257,19 +6259,19 @@
         <v>3067.963471491298</v>
       </c>
       <c r="U26" t="n">
-        <v>2812.210741925897</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V26" t="n">
-        <v>2812.210741925897</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W26" t="n">
-        <v>2441.211706894184</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="X26" t="n">
-        <v>2441.211706894184</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="Y26" t="n">
-        <v>2441.211706894184</v>
+        <v>2671.472762411899</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C27" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D27" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E27" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F27" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G27" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H27" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I27" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>900.7358324498676</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K27" t="n">
-        <v>1220.474978512094</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L27" t="n">
-        <v>1704.041064410407</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M27" t="n">
-        <v>1949.449642343508</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N27" t="n">
-        <v>1949.449642343508</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O27" t="n">
-        <v>2465.969924934489</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P27" t="n">
-        <v>2871.591293650886</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q27" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R27" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S27" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T27" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U27" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V27" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W27" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X27" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y27" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="C28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="D28" t="n">
-        <v>862.2091751078208</v>
+        <v>698.7364795710005</v>
       </c>
       <c r="E28" t="n">
-        <v>706.6503629670233</v>
+        <v>543.177667430203</v>
       </c>
       <c r="F28" t="n">
-        <v>549.3244281799962</v>
+        <v>385.851732643176</v>
       </c>
       <c r="G28" t="n">
-        <v>381.0703742794417</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H28" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
         <v>62.11912770411553</v>
@@ -6409,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="W28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="X28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="Y28" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1433.096963477125</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C29" t="n">
-        <v>1433.096963477125</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D29" t="n">
-        <v>1433.096963477125</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E29" t="n">
-        <v>1030.51343859367</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F29" t="n">
-        <v>613.6190001236475</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J29" t="n">
         <v>206.7689006129436</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2856.834182865035</v>
+        <v>2771.864152022193</v>
       </c>
       <c r="U29" t="n">
-        <v>2601.081453299634</v>
+        <v>2771.864152022193</v>
       </c>
       <c r="V29" t="n">
-        <v>2601.081453299634</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="W29" t="n">
-        <v>2230.082418267921</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X29" t="n">
-        <v>2230.082418267921</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y29" t="n">
-        <v>1833.591709188522</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>456.9185815712231</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1084.690231197904</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N30" t="n">
-        <v>1740.468202408463</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O30" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P30" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="C31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="D31" t="n">
-        <v>684.0320477807597</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="E31" t="n">
-        <v>528.4732356399622</v>
+        <v>457.1236869934889</v>
       </c>
       <c r="F31" t="n">
-        <v>385.851732643176</v>
+        <v>416.230002817074</v>
       </c>
       <c r="G31" t="n">
-        <v>217.5976787426216</v>
+        <v>247.9759489165196</v>
       </c>
       <c r="H31" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="I31" t="n">
-        <v>62.11912770411553</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J31" t="n">
         <v>62.11912770411553</v>
@@ -6643,28 +6645,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V31" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W31" t="n">
-        <v>839.6651608782449</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="X31" t="n">
-        <v>839.6651608782449</v>
+        <v>680.2357481768456</v>
       </c>
       <c r="Y31" t="n">
-        <v>839.6651608782449</v>
+        <v>457.1236869934889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2122.63388867904</v>
+        <v>950.6597514544419</v>
       </c>
       <c r="C32" t="n">
-        <v>1729.45838718197</v>
+        <v>557.4842499573724</v>
       </c>
       <c r="D32" t="n">
-        <v>1344.017258398638</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E32" t="n">
-        <v>941.4337335151823</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F32" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G32" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H32" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J32" t="n">
         <v>206.7689006129436</v>
@@ -6722,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S32" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2901.449916432349</v>
+        <v>2850.203655640375</v>
       </c>
       <c r="V32" t="n">
-        <v>2901.449916432349</v>
+        <v>2508.096846343894</v>
       </c>
       <c r="W32" t="n">
-        <v>2901.449916432349</v>
+        <v>2137.097811312181</v>
       </c>
       <c r="X32" t="n">
-        <v>2901.449916432349</v>
+        <v>1747.645206245238</v>
       </c>
       <c r="Y32" t="n">
-        <v>2523.128634390436</v>
+        <v>1351.154497165839</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>978.5393418843826</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>1084.690231197904</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1740.468202408463</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1740.468202408463</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6886,13 +6888,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>2990.007821818515</v>
       </c>
       <c r="U34" t="n">
-        <v>2987.899432129239</v>
+        <v>2704.569030060416</v>
       </c>
       <c r="V34" t="n">
-        <v>2721.920086950063</v>
+        <v>2438.589684881241</v>
       </c>
       <c r="W34" t="n">
         <v>2438.589684881241</v>
@@ -6911,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1715.01185657461</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="C35" t="n">
-        <v>1321.83635507754</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D35" t="n">
-        <v>936.3952262942078</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E35" t="n">
-        <v>533.8117014107522</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F35" t="n">
-        <v>116.91726294073</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G35" t="n">
         <v>62.11912770411553</v>
@@ -6959,28 +6961,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U35" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V35" t="n">
-        <v>2901.449916432349</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W35" t="n">
-        <v>2901.449916432349</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X35" t="n">
-        <v>2511.997311365405</v>
+        <v>2076.691684432321</v>
       </c>
       <c r="Y35" t="n">
-        <v>2115.506602286006</v>
+        <v>1680.200975352922</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>92.49739787801357</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="C37" t="n">
-        <v>92.49739787801357</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="D37" t="n">
-        <v>92.49739787801357</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="E37" t="n">
-        <v>92.49739787801357</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="F37" t="n">
-        <v>92.49739787801357</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="G37" t="n">
-        <v>92.49739787801357</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="H37" t="n">
-        <v>92.49739787801357</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I37" t="n">
-        <v>92.49739787801357</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q37" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R37" t="n">
-        <v>963.5661502456679</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S37" t="n">
-        <v>963.5661502456679</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>2543.520260189137</v>
       </c>
       <c r="U37" t="n">
-        <v>678.1273584875689</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="V37" t="n">
-        <v>412.1480133083932</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="W37" t="n">
-        <v>128.8176112395708</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="X37" t="n">
-        <v>92.49739787801357</v>
+        <v>2493.162600167943</v>
       </c>
       <c r="Y37" t="n">
-        <v>92.49739787801357</v>
+        <v>2493.162600167943</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1196.272118104717</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C38" t="n">
-        <v>803.0966166076471</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D38" t="n">
-        <v>803.0966166076471</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E38" t="n">
-        <v>803.0966166076471</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F38" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H38" t="n">
         <v>62.11912770411553</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U38" t="n">
-        <v>2901.449916432349</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2753.709212994168</v>
+        <v>2763.849575909295</v>
       </c>
       <c r="W38" t="n">
-        <v>2382.710177962455</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="X38" t="n">
-        <v>1993.257572895512</v>
+        <v>2392.850540877582</v>
       </c>
       <c r="Y38" t="n">
-        <v>1596.766863816114</v>
+        <v>2392.850540877582</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>346.0196676966397</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.11912770411553</v>
+        <v>389.6501804251534</v>
       </c>
       <c r="C40" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="D40" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="E40" t="n">
-        <v>62.11912770411553</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F40" t="n">
         <v>62.11912770411553</v>
@@ -7360,22 +7362,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>611.4288749521137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V40" t="n">
-        <v>345.4495297729379</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W40" t="n">
-        <v>62.11912770411553</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="X40" t="n">
-        <v>62.11912770411553</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.11912770411553</v>
+        <v>574.8581991164547</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1181.96120451815</v>
+        <v>1564.910276384764</v>
       </c>
       <c r="C41" t="n">
-        <v>788.7857030210803</v>
+        <v>1171.734774887694</v>
       </c>
       <c r="D41" t="n">
-        <v>788.7857030210803</v>
+        <v>786.2936461043621</v>
       </c>
       <c r="E41" t="n">
-        <v>386.2021781376249</v>
+        <v>383.7101212209066</v>
       </c>
       <c r="F41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G41" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7433,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U41" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V41" t="n">
-        <v>2508.096846343894</v>
+        <v>2725.856662194817</v>
       </c>
       <c r="W41" t="n">
-        <v>2137.097811312181</v>
+        <v>2354.857627163104</v>
       </c>
       <c r="X41" t="n">
-        <v>1978.946659308946</v>
+        <v>1965.405022096161</v>
       </c>
       <c r="Y41" t="n">
-        <v>1582.455950229547</v>
+        <v>1965.405022096161</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
         <v>62.11912770411553</v>
@@ -7594,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>525.0310145964513</v>
+        <v>847.6175868584073</v>
       </c>
       <c r="U43" t="n">
-        <v>239.5922228383523</v>
+        <v>562.1787951003082</v>
       </c>
       <c r="V43" t="n">
-        <v>239.5922228383523</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="W43" t="n">
-        <v>239.5922228383523</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>239.5922228383523</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.464461641553</v>
+        <v>2116.78563018664</v>
       </c>
       <c r="C44" t="n">
-        <v>2104.464461641553</v>
+        <v>1723.610128689571</v>
       </c>
       <c r="D44" t="n">
-        <v>1757.180013910635</v>
+        <v>1338.168999906239</v>
       </c>
       <c r="E44" t="n">
-        <v>1354.596489027179</v>
+        <v>935.5854750227832</v>
       </c>
       <c r="F44" t="n">
-        <v>937.702050557157</v>
+        <v>518.6910365527609</v>
       </c>
       <c r="G44" t="n">
-        <v>524.5392950451601</v>
+        <v>106.1331072396295</v>
       </c>
       <c r="H44" t="n">
-        <v>200.4562446116507</v>
+        <v>106.1331072396295</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>270.9233280874829</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404055</v>
+        <v>705.3108151130481</v>
       </c>
       <c r="L44" t="n">
-        <v>1059.071548358934</v>
+        <v>1292.177839612515</v>
       </c>
       <c r="M44" t="n">
-        <v>1605.072448403515</v>
+        <v>1942.267504401615</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2575.851817818616</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>3115.769891361764</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>3549.201349130628</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="R44" t="n">
-        <v>3067.963471491298</v>
+        <v>3798.061577393165</v>
       </c>
       <c r="S44" t="n">
-        <v>2901.449916432349</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="T44" t="n">
-        <v>2901.449916432349</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="U44" t="n">
-        <v>2901.449916432349</v>
+        <v>3645.330499340861</v>
       </c>
       <c r="V44" t="n">
-        <v>2901.449916432349</v>
+        <v>3303.22369004438</v>
       </c>
       <c r="W44" t="n">
-        <v>2901.449916432349</v>
+        <v>3303.22369004438</v>
       </c>
       <c r="X44" t="n">
-        <v>2901.449916432349</v>
+        <v>2913.771084977436</v>
       </c>
       <c r="Y44" t="n">
-        <v>2504.95920735295</v>
+        <v>2517.280375898037</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>861.4851108441464</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C45" t="n">
-        <v>710.8308804042387</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D45" t="n">
-        <v>580.741913025719</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366068</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197386</v>
+        <v>319.1148584066127</v>
       </c>
       <c r="G45" t="n">
-        <v>199.803798091603</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>313.8895596758473</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>313.8895596758473</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1022.025029968186</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1760.293813047411</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q45" t="n">
-        <v>2380.454662679751</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R45" t="n">
-        <v>2356.537619577816</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S45" t="n">
-        <v>2221.606942477685</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T45" t="n">
-        <v>2044.623130676593</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U45" t="n">
-        <v>1834.559987355235</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V45" t="n">
-        <v>1612.019985726302</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.902739859589</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X45" t="n">
-        <v>1192.595662209601</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y45" t="n">
-        <v>1013.281445285108</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>543.5161708764091</v>
+        <v>455.3751682881314</v>
       </c>
       <c r="C46" t="n">
-        <v>373.3110529423983</v>
+        <v>455.3751682881314</v>
       </c>
       <c r="D46" t="n">
-        <v>217.677939844913</v>
+        <v>299.7420551906462</v>
       </c>
       <c r="E46" t="n">
-        <v>62.11912770411553</v>
+        <v>299.7420551906462</v>
       </c>
       <c r="F46" t="n">
-        <v>62.11912770411553</v>
+        <v>299.7420551906462</v>
       </c>
       <c r="G46" t="n">
-        <v>62.11912770411553</v>
+        <v>131.7593055010172</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>131.7593055010172</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411553</v>
+        <v>75.96123154786331</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>188.689628895047</v>
       </c>
       <c r="L46" t="n">
-        <v>308.0818086878572</v>
+        <v>392.3501285422311</v>
       </c>
       <c r="M46" t="n">
-        <v>494.3733870261212</v>
+        <v>620.3235645955781</v>
       </c>
       <c r="N46" t="n">
-        <v>677.5630210573304</v>
+        <v>844.2039549289384</v>
       </c>
       <c r="O46" t="n">
-        <v>840.2677880990384</v>
+        <v>1044.493221405438</v>
       </c>
       <c r="P46" t="n">
-        <v>960.1439538756169</v>
+        <v>1196.529419371396</v>
       </c>
       <c r="Q46" t="n">
-        <v>963.5661502456679</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="R46" t="n">
-        <v>839.6651608782449</v>
+        <v>1222.217555045142</v>
       </c>
       <c r="S46" t="n">
-        <v>839.6651608782449</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="T46" t="n">
-        <v>839.6651608782449</v>
+        <v>1024.129563703548</v>
       </c>
       <c r="U46" t="n">
-        <v>839.6651608782449</v>
+        <v>738.7055703569538</v>
       </c>
       <c r="V46" t="n">
-        <v>839.6651608782449</v>
+        <v>738.7055703569538</v>
       </c>
       <c r="W46" t="n">
-        <v>839.6651608782449</v>
+        <v>455.3751682881314</v>
       </c>
       <c r="X46" t="n">
-        <v>728.7241895677104</v>
+        <v>455.3751682881314</v>
       </c>
       <c r="Y46" t="n">
-        <v>728.7241895677104</v>
+        <v>455.3751682881314</v>
       </c>
     </row>
   </sheetData>
@@ -7994,7 +7996,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8061,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>166.3231752016895</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>747.7741039759435</v>
+        <v>345.597757882153</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8234,7 +8236,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,25 +8297,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>597.3159339866204</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8471,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8532,13 +8534,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>112.3087888732267</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8547,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>287.615168339707</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>263.0728605086217</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,13 +8780,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q12" t="n">
         <v>90.98815315591399</v>
@@ -9003,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
@@ -9015,16 +9017,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>630.6030013529515</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9184,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9243,7 +9245,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K18" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
@@ -9252,16 +9254,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>335.1420048916687</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9410,7 +9412,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N20" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
         <v>594.0482827698827</v>
@@ -9480,7 +9482,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>236.6660863673584</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9492,10 +9494,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9714,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.2265410010273</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9732,7 +9734,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9951,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>340.2745745069888</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10130,7 +10132,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q29" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>488.8476739954107</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>464.9323088406971</v>
       </c>
       <c r="P30" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>199.6102425680207</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10604,7 +10606,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10665,22 +10667,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>546.0917343741362</v>
+        <v>447.5171231095475</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10841,7 +10843,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294514</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,10 +10904,10 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>376.8285690715891</v>
+        <v>290.5921503773105</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
@@ -10920,7 +10922,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,16 +11138,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>351.8313913012159</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11154,10 +11156,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>52.17609846406374</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>278.1951335262041</v>
       </c>
       <c r="L45" t="n">
-        <v>203.8424305246122</v>
+        <v>20.49834389404781</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11391,10 +11393,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>25.90589819983273</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>50.09263685995639</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>60.30642746738482</v>
       </c>
       <c r="G2" t="n">
-        <v>14.40171310417895</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>66.12369447580235</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22768,10 +22770,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>90.19647568997044</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22841,10 +22843,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>286.9447414934459</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -22945,25 +22947,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22993,19 +22995,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>118.5727835600602</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -23018,25 +23020,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23069,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>65.74197678056828</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23084,10 +23086,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>20.44096600529184</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23182,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23230,16 +23232,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>334.689628441424</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23303,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>96.97491998486933</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23501,19 +23503,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.997479214243533</v>
       </c>
       <c r="S14" t="n">
         <v>164.8484195083599</v>
@@ -23549,13 +23551,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>175.6348817501649</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,16 +23703,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>87.62118754448949</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
         <v>280.4970980481341</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>224.5574566382955</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>47.60838107434068</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
@@ -23944,19 +23946,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>104.0045570257511</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>56.63048077364817</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -23972,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>5.659020426305176</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24014,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>150.0538274582852</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>154.919194871557</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>141.9442314584373</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24178,10 +24180,10 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
@@ -24190,7 +24192,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24206,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>152.3195699869353</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24254,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>164.1234033749066</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24263,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24379,13 +24381,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>171.014965942249</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>104.0045570257511</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>262.1704412156288</v>
       </c>
       <c r="D26" t="n">
-        <v>100.885139696068</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24497,19 +24499,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24604,7 +24606,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>53.73337658004174</v>
+        <v>92.68333097786581</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24619,10 +24621,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
@@ -24680,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>139.4830356072035</v>
+        <v>92.9756896501234</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24841,13 +24843,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>14.55738747233838</v>
+        <v>115.267928104506</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24859,7 +24861,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,13 +24922,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>212.0174663939489</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>17.98773276711142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25126,16 +25128,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>233.3618613134482</v>
+        <v>118.5727835600599</v>
       </c>
       <c r="U34" t="n">
-        <v>165.708020294746</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>354.7809740726285</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25199,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25211,13 +25213,13 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>72.56081113546549</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25318,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25330,10 +25332,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>232.7303204195364</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>195.7825077669051</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>80.21047486696841</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25436,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
         <v>221.2655964161775</v>
@@ -25448,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>192.4224447997178</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
@@ -25558,7 +25560,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25600,22 +25602,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>99.37962068098597</v>
       </c>
     </row>
     <row r="41">
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>94.35041050369887</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -25673,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
@@ -25682,7 +25684,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>228.9884385330706</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="42">
@@ -25801,13 +25803,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
-        <v>140.0633699266785</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25834,22 +25836,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>118.5727835600602</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25865,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>37.77511424188998</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831355</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>83.99920239217123</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>153.923765528121</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I46" t="n">
-        <v>131.7634811092929</v>
+        <v>68.44611892799729</v>
       </c>
       <c r="J46" t="n">
-        <v>30.07448747215907</v>
+        <v>11.08509183685223</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26068,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>110.5851438286122</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>232.2142445012335</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>121.9079573974175</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674826.2535106605</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106601</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106605</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106605</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106605</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>674826.2535106603</v>
+        <v>756963.9863598592</v>
       </c>
     </row>
   </sheetData>
@@ -26332,7 +26334,7 @@
         <v>254445.3498136761</v>
       </c>
       <c r="I2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.3498136762</v>
       </c>
       <c r="J2" t="n">
         <v>254445.3498136761</v>
@@ -26353,7 +26355,7 @@
         <v>254445.3498136761</v>
       </c>
       <c r="P2" t="n">
-        <v>254445.3498136761</v>
+        <v>287983.2599112163</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>140033.8089230486</v>
       </c>
     </row>
     <row r="4">
@@ -26421,7 +26423,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="D4" t="n">
-        <v>39261.69958392653</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="E4" t="n">
         <v>39261.69958392654</v>
@@ -26457,7 +26459,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="P4" t="n">
-        <v>39261.69958392654</v>
+        <v>37642.66253781081</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26478,13 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26509,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>47210.5370551278</v>
+        <v>60977.55903357439</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125873.8422452071</v>
+        <v>-125873.842245207</v>
       </c>
       <c r="C6" t="n">
         <v>134345.5131746218</v>
       </c>
       <c r="D6" t="n">
-        <v>134345.5131746217</v>
+        <v>134345.5131746218</v>
       </c>
       <c r="E6" t="n">
         <v>167973.1131746218</v>
       </c>
       <c r="F6" t="n">
-        <v>167973.1131746217</v>
+        <v>167973.1131746218</v>
       </c>
       <c r="G6" t="n">
         <v>167973.1131746218</v>
@@ -26540,7 +26542,7 @@
         <v>167973.1131746218</v>
       </c>
       <c r="I6" t="n">
-        <v>167973.1131746217</v>
+        <v>167973.1131746219</v>
       </c>
       <c r="J6" t="n">
         <v>-35190.59993807322</v>
@@ -26549,19 +26551,19 @@
         <v>167973.1131746218</v>
       </c>
       <c r="L6" t="n">
-        <v>167973.1131746217</v>
+        <v>167973.1131746218</v>
       </c>
       <c r="M6" t="n">
         <v>167973.1131746218</v>
       </c>
       <c r="N6" t="n">
+        <v>167973.1131746217</v>
+      </c>
+      <c r="O6" t="n">
         <v>167973.1131746218</v>
       </c>
-      <c r="O6" t="n">
-        <v>167973.1131746217</v>
-      </c>
       <c r="P6" t="n">
-        <v>167973.1131746218</v>
+        <v>49329.22941678256</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980863</v>
       </c>
     </row>
     <row r="4">
@@ -26793,16 +26795,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26829,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>949.5153943482914</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>148.9460117980863</v>
       </c>
     </row>
     <row r="4">
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>173.0262980468473</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.5987779368767285</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>6.132234546038798</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>23.0843864114401</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>50.82052891999129</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>76.16679898798323</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>94.49164927367443</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>105.1401664086059</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>106.841444221757</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>100.887346111939</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>86.10501579529473</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>64.66128093089687</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733283</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.64465223657847</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.62115041867788</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.04790223495013828</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.3203744404713555</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>3.094142622447039</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>11.03043577938658</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>30.26835886926961</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>51.73344638085043</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>69.56200296287042</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>81.17557642995705</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>83.32405239259172</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>76.22522926425273</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>61.17746661948193</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>40.8955162959576</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>19.89131833031803</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>5.950814716649956</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1.291333819268314</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.02107726582048393</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2685911688162212</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2.388019664566042</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>8.077268967673275</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.98939563530684</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>31.20541034064824</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>39.93218158927712</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>42.10288658089184</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>41.10177404257687</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>37.96414084322372</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>32.48488099937278</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>22.49084778151104</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>12.07683564513664</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>4.680811551097236</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.147616812214763</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.01465042738997572</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34714,7 +34716,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34781,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>73.93605315237758</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34956,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>511.9438211324538</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35254,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>22.71185353989334</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35267,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>200.5318035203924</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,13 +35500,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
@@ -35735,16 +35737,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>545.2308884987849</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
@@ -35972,16 +35974,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>249.769892037502</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
         <v>444.4844453457863</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>147.0691510340251</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36212,10 +36214,10 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36434,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36452,7 +36454,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>247.8874524576769</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,7 +36852,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>398.7873271384925</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>372.2447499518083</v>
       </c>
       <c r="P30" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>107.2231205187088</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>460.7196215199696</v>
+        <v>362.1450102553808</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37561,7 +37563,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>286.7682222146709</v>
+        <v>200.5318035203923</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
@@ -37640,7 +37642,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>259.444269251904</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37874,10 +37876,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>146.110881726089</v>
+        <v>196.9314106460803</v>
       </c>
       <c r="K44" t="n">
-        <v>362.6084404317796</v>
+        <v>438.7752394197628</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>592.7949742418854</v>
       </c>
       <c r="M44" t="n">
-        <v>551.5160606510915</v>
+        <v>656.6562270596975</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>639.9841549666681</v>
       </c>
       <c r="O44" t="n">
-        <v>444.4844453457863</v>
+        <v>545.3717914577253</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>437.8095533018824</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>251.373967941956</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>240.3316445737212</v>
       </c>
       <c r="L45" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>634.1127774006881</v>
+        <v>715.2883538306451</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>745.7260435143686</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>597.9628884470619</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>113.8670680274582</v>
       </c>
       <c r="L46" t="n">
-        <v>165.78549482202</v>
+        <v>205.7176764112971</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>230.2761980336838</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>226.1418084175357</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>202.3123903803026</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>153.571917137331</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>25.94761179166352</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_20.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>963991.7627800829</v>
+        <v>959350.7455034818</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1724218.845698042</v>
+        <v>1667317.432543015</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7798735.927490102</v>
+        <v>7966425.477977804</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7850531.41944711</v>
+        <v>7803098.925367225</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>352.4190666179372</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>92.26682946023671</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,10 +718,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -873,16 +873,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>60.14461109123222</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>318.8346522669064</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -1068,16 +1068,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>38.86000308207239</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>128.0343760398587</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,19 +1183,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>187.4532254891791</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -1296,25 +1296,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>34.56570943550025</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>61.80016981285896</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>224.2260152081084</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -1533,25 +1533,25 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1581,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>32.61550536308975</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>115.2305138024432</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1770,25 +1770,25 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E17" t="n">
         <v>398.5576896346209</v>
@@ -1861,10 +1861,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,28 +1891,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>319.6806636070547</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
@@ -2064,7 +2064,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>223.866617274486</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>26.27058542726456</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,25 +2128,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>71.21176895789225</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>28.43674363283122</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,19 +2292,19 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X22" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
@@ -2332,10 +2332,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.7250161334533868</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>385.5580790162737</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
         <v>263.319551727384</v>
@@ -2541,10 +2541,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>116.876383545772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>127.0733052664699</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>36.65043744676004</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.39345098864458</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
@@ -2800,7 +2800,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>128.2899067660541</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>153.2711333470682</v>
       </c>
     </row>
     <row r="30">
@@ -2961,19 +2961,19 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>40.48474733465077</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>116.876383545772</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>169.5692511015501</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>283.537437087378</v>
       </c>
       <c r="W32" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>385.5580790162737</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.7890777533883</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U34" t="n">
         <v>282.5844038405181</v>
@@ -3249,10 +3249,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>133.2457676136645</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>312.9972678808082</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>49.85408342098169</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>316.2793233873145</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -3517,7 +3517,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G38" t="n">
-        <v>409.0311279568768</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>194.6126785212292</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.5013198905371</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,10 +3751,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>318.3750835816231</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>37.61298457733328</v>
+        <v>18.94063558549244</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>385.5580790162737</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>114.789077753388</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>194.5391205741084</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>232.3968780661253</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>408.4323500200001</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>29.87015693484848</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717815</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4070,13 +4070,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>118.5388453083828</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
-        <v>84.32029961295804</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882093</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,16 +4103,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340598073</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>127.6305556124799</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
-        <v>173.9226398638123</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U45" t="n">
-        <v>207.9414346223241</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
         <v>220.3146016126436</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I46" t="n">
-        <v>55.24009321362232</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>196.1071114281789</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5697534131281</v>
+        <v>194.6921370124977</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1548.519290316325</v>
+        <v>1773.399792989525</v>
       </c>
       <c r="C2" t="n">
-        <v>1155.343788819255</v>
+        <v>1773.399792989525</v>
       </c>
       <c r="D2" t="n">
-        <v>1155.343788819255</v>
+        <v>1387.958664206193</v>
       </c>
       <c r="E2" t="n">
-        <v>1155.343788819255</v>
+        <v>985.3751393227374</v>
       </c>
       <c r="F2" t="n">
-        <v>799.3649336496217</v>
+        <v>568.4807008527151</v>
       </c>
       <c r="G2" t="n">
-        <v>386.2021781376249</v>
+        <v>155.3179453407183</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
@@ -4354,28 +4354,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R2" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="U2" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="V2" t="n">
-        <v>3105.956385205776</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="W2" t="n">
-        <v>2734.957350174064</v>
+        <v>2559.343107135867</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.50474510712</v>
+        <v>2169.890502068924</v>
       </c>
       <c r="Y2" t="n">
-        <v>1949.014036027722</v>
+        <v>1773.399792989525</v>
       </c>
     </row>
     <row r="3">
@@ -4415,19 +4415,19 @@
         <v>1220.474978512094</v>
       </c>
       <c r="L3" t="n">
-        <v>1704.041064410407</v>
+        <v>1321.677992716826</v>
       </c>
       <c r="M3" t="n">
-        <v>2331.812714037089</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="N3" t="n">
-        <v>2589.436102614795</v>
+        <v>1949.449642343508</v>
       </c>
       <c r="O3" t="n">
-        <v>3105.956385205776</v>
+        <v>2465.969924934489</v>
       </c>
       <c r="P3" t="n">
-        <v>3105.956385205776</v>
+        <v>2871.591293650886</v>
       </c>
       <c r="Q3" t="n">
         <v>3105.956385205776</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
         <v>62.11912770411553</v>
@@ -4521,19 +4521,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1625.211129635568</v>
+        <v>1679.595029418486</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.035628138499</v>
+        <v>1679.595029418486</v>
       </c>
       <c r="D5" t="n">
-        <v>846.5944993551666</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E5" t="n">
-        <v>846.5944993551666</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F5" t="n">
-        <v>846.5944993551666</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J5" t="n">
         <v>206.7689006129436</v>
@@ -4603,16 +4603,16 @@
         <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2422.196584426364</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>2422.196584426364</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X5" t="n">
-        <v>2422.196584426364</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="Y5" t="n">
-        <v>2025.705875346965</v>
+        <v>2080.089775129883</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>963.5661502456679</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="C7" t="n">
-        <v>963.5661502456679</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="D7" t="n">
-        <v>862.2091751078208</v>
+        <v>375.0038746319401</v>
       </c>
       <c r="E7" t="n">
-        <v>706.6503629670233</v>
+        <v>219.4450624911426</v>
       </c>
       <c r="F7" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G7" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H7" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I7" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J7" t="n">
         <v>62.11912770411553</v>
@@ -4761,16 +4761,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="V7" t="n">
-        <v>963.5661502456679</v>
+        <v>697.5868050664922</v>
       </c>
       <c r="W7" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5661502456679</v>
+        <v>414.2564029976698</v>
       </c>
       <c r="Y7" t="n">
-        <v>963.5661502456679</v>
+        <v>375.0038746319401</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979.0728748920524</v>
+        <v>1294.14646098354</v>
       </c>
       <c r="C8" t="n">
-        <v>585.897373394983</v>
+        <v>900.970959486471</v>
       </c>
       <c r="D8" t="n">
-        <v>200.4562446116507</v>
+        <v>515.5298307031387</v>
       </c>
       <c r="E8" t="n">
-        <v>200.4562446116507</v>
+        <v>515.5298307031387</v>
       </c>
       <c r="F8" t="n">
-        <v>200.4562446116507</v>
+        <v>515.5298307031387</v>
       </c>
       <c r="G8" t="n">
-        <v>200.4562446116507</v>
+        <v>515.5298307031387</v>
       </c>
       <c r="H8" t="n">
-        <v>200.4562446116507</v>
+        <v>191.4467802696294</v>
       </c>
       <c r="I8" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J8" t="n">
         <v>206.7689006129436</v>
@@ -4831,25 +4831,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2878.616779077985</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2536.509969781504</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W8" t="n">
-        <v>2165.510934749791</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X8" t="n">
-        <v>1776.058329682848</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y8" t="n">
-        <v>1379.567620603449</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I9" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>381.8582737663419</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M9" t="n">
-        <v>1009.629923393023</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N9" t="n">
-        <v>1665.407894603582</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O9" t="n">
-        <v>2181.928177194563</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P9" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q9" t="n">
         <v>2380.454662679751</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J10" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K10" t="n">
         <v>143.9541688140574</v>
@@ -4986,28 +4986,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R10" t="n">
-        <v>963.5661502456679</v>
+        <v>839.6651608782449</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>804.7503028625881</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>804.7503028625881</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>519.3115111044891</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="11">
@@ -5017,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>860.7230119994447</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C11" t="n">
-        <v>860.7230119994447</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D11" t="n">
-        <v>475.2818832161124</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E11" t="n">
-        <v>475.2818832161124</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F11" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
         <v>206.7689006129436</v>
@@ -5059,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>2901.449916432348</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T11" t="n">
-        <v>2677.949313991765</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U11" t="n">
-        <v>2422.196584426364</v>
+        <v>2683.690100581426</v>
       </c>
       <c r="V11" t="n">
-        <v>2080.089775129882</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="W11" t="n">
-        <v>1709.09074009817</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="X11" t="n">
-        <v>1319.638135031226</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y11" t="n">
-        <v>923.1474259518275</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1173.45686322911</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1829.234834439669</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O12" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D13" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E13" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F13" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5229,22 +5229,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V13" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>917.7147965422296</v>
+        <v>1413.109709462198</v>
       </c>
       <c r="C14" t="n">
-        <v>524.5392950451601</v>
+        <v>1019.934207965129</v>
       </c>
       <c r="D14" t="n">
-        <v>524.5392950451601</v>
+        <v>1019.934207965129</v>
       </c>
       <c r="E14" t="n">
-        <v>524.5392950451601</v>
+        <v>617.350683081673</v>
       </c>
       <c r="F14" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="G14" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H14" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I14" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5296,34 +5296,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R14" t="n">
-        <v>3073.011430293564</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3073.011430293564</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T14" t="n">
-        <v>3073.011430293564</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U14" t="n">
-        <v>2817.258700728163</v>
+        <v>2599.547769319937</v>
       </c>
       <c r="V14" t="n">
-        <v>2475.151891431681</v>
+        <v>2599.547769319937</v>
       </c>
       <c r="W14" t="n">
-        <v>2104.152856399969</v>
+        <v>2599.547769319937</v>
       </c>
       <c r="X14" t="n">
-        <v>1714.700251333025</v>
+        <v>2210.095164252994</v>
       </c>
       <c r="Y14" t="n">
-        <v>1318.209542253627</v>
+        <v>1813.604455173595</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N15" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D16" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E16" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K16" t="n">
         <v>143.9541688140574</v>
@@ -5466,22 +5466,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V16" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y16" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1757.180013910635</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C17" t="n">
-        <v>1757.180013910635</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F17" t="n">
-        <v>937.7020505571572</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451603</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116509</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5533,34 +5533,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>2901.449916432348</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T17" t="n">
-        <v>2677.949313991765</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U17" t="n">
-        <v>2422.196584426364</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V17" t="n">
-        <v>2080.089775129882</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W17" t="n">
-        <v>1757.180013910635</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X17" t="n">
-        <v>1757.180013910635</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y17" t="n">
-        <v>1757.180013910635</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
         <v>143.9541688140574</v>
@@ -5697,28 +5697,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>839.6651608782449</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U19" t="n">
-        <v>554.2263691201458</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V19" t="n">
-        <v>288.2470239409701</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>840.7357579845172</v>
+        <v>1714.471292942684</v>
       </c>
       <c r="C20" t="n">
-        <v>447.5602564874478</v>
+        <v>1321.295791445615</v>
       </c>
       <c r="D20" t="n">
-        <v>62.11912770411553</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E20" t="n">
-        <v>62.11912770411553</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F20" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G20" t="n">
         <v>62.11912770411553</v>
@@ -5749,7 +5749,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5776,28 +5776,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T20" t="n">
-        <v>2996.032391735851</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="U20" t="n">
-        <v>2740.27966217045</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="V20" t="n">
-        <v>2398.172852873969</v>
+        <v>2882.455782765193</v>
       </c>
       <c r="W20" t="n">
-        <v>2027.173817842256</v>
+        <v>2511.45674773348</v>
       </c>
       <c r="X20" t="n">
-        <v>1637.721212775313</v>
+        <v>2511.45674773348</v>
       </c>
       <c r="Y20" t="n">
-        <v>1241.230503695914</v>
+        <v>2114.966038654081</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O21" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P21" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>700.7618445611447</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C22" t="n">
-        <v>530.5567266271339</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D22" t="n">
-        <v>374.9236135296486</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E22" t="n">
-        <v>374.9236135296486</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F22" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G22" t="n">
-        <v>217.5976787426216</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H22" t="n">
         <v>62.11912770411553</v>
@@ -5940,22 +5940,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T22" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U22" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V22" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W22" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X22" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y22" t="n">
-        <v>729.485828028651</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1205.680141491103</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C23" t="n">
-        <v>1205.680141491103</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D23" t="n">
-        <v>1205.680141491103</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>803.0966166076471</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
         <v>206.7689006129436</v>
@@ -6016,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3105.224045677036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.224045677036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.224045677036</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2763.117236380554</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>2392.118201348841</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>2002.665596281898</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y23" t="n">
-        <v>1606.1748872025</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="24">
@@ -6068,22 +6068,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L24" t="n">
-        <v>545.6852136024288</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>1173.45686322911</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
         <v>2380.454662679751</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C25" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D25" t="n">
         <v>62.11912770411553</v>
@@ -6180,19 +6180,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V25" t="n">
-        <v>697.5868050664922</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W25" t="n">
-        <v>414.2564029976698</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X25" t="n">
-        <v>180.1760807806529</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y25" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2270.978016700502</v>
+        <v>779.3776796346942</v>
       </c>
       <c r="C26" t="n">
-        <v>2142.621142693967</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.180013910635</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E26" t="n">
-        <v>1354.596489027179</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F26" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G26" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H26" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I26" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129441</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6250,28 +6250,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R26" t="n">
-        <v>3067.963471491298</v>
+        <v>3068.93574132016</v>
       </c>
       <c r="S26" t="n">
-        <v>3067.963471491298</v>
+        <v>2902.422186261211</v>
       </c>
       <c r="T26" t="n">
-        <v>3067.963471491298</v>
+        <v>2678.921583820627</v>
       </c>
       <c r="U26" t="n">
-        <v>3067.963471491298</v>
+        <v>2678.921583820627</v>
       </c>
       <c r="V26" t="n">
-        <v>3067.963471491298</v>
+        <v>2336.814774524146</v>
       </c>
       <c r="W26" t="n">
-        <v>3067.963471491298</v>
+        <v>1965.815739492433</v>
       </c>
       <c r="X26" t="n">
-        <v>3067.963471491298</v>
+        <v>1576.36313442549</v>
       </c>
       <c r="Y26" t="n">
-        <v>2671.472762411899</v>
+        <v>1179.872425346091</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D28" t="n">
-        <v>698.7364795710005</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E28" t="n">
-        <v>543.177667430203</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F28" t="n">
-        <v>385.851732643176</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="G28" t="n">
-        <v>217.5976787426216</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="H28" t="n">
         <v>62.11912770411553</v>
@@ -6411,25 +6411,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>760.7500664282172</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>760.7500664282172</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>760.7500664282172</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y28" t="n">
-        <v>760.7500664282172</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1243.319282867973</v>
+        <v>1164.818808418026</v>
       </c>
       <c r="C29" t="n">
-        <v>850.1437813709033</v>
+        <v>771.6433069209571</v>
       </c>
       <c r="D29" t="n">
-        <v>464.702652587571</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="E29" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411551</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J29" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404059</v>
       </c>
       <c r="L29" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M29" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N29" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O29" t="n">
         <v>2572.923332933306</v>
@@ -6493,22 +6493,22 @@
         <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>2771.864152022193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>2771.864152022193</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>2429.757342725712</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2429.757342725712</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X29" t="n">
-        <v>2040.304737658769</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y29" t="n">
-        <v>1643.81402857937</v>
+        <v>1164.818808418026</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K30" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L30" t="n">
-        <v>978.5393418843826</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M30" t="n">
-        <v>1606.310991511064</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N30" t="n">
-        <v>1606.310991511064</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>416.230002817074</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>247.9759489165196</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
         <v>62.11912770411553</v>
@@ -6654,19 +6654,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>963.5661502456679</v>
+        <v>845.5091971691305</v>
       </c>
       <c r="V31" t="n">
-        <v>963.5661502456679</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W31" t="n">
-        <v>680.2357481768456</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X31" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>457.1236869934889</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>950.6597514544419</v>
+        <v>1595.123960030147</v>
       </c>
       <c r="C32" t="n">
-        <v>557.4842499573724</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="D32" t="n">
-        <v>386.2021781376249</v>
+        <v>1201.948458533077</v>
       </c>
       <c r="E32" t="n">
-        <v>386.2021781376249</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F32" t="n">
-        <v>386.2021781376249</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G32" t="n">
         <v>386.2021781376249</v>
@@ -6697,22 +6697,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="I32" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J32" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L32" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M32" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N32" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O32" t="n">
         <v>2572.923332933306</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U32" t="n">
-        <v>2850.203655640375</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V32" t="n">
-        <v>2508.096846343894</v>
+        <v>2781.562019887886</v>
       </c>
       <c r="W32" t="n">
-        <v>2137.097811312181</v>
+        <v>2781.562019887886</v>
       </c>
       <c r="X32" t="n">
-        <v>1747.645206245238</v>
+        <v>2392.109414820943</v>
       </c>
       <c r="Y32" t="n">
-        <v>1351.154497165839</v>
+        <v>1995.618705741544</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>2990.007821818515</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U34" t="n">
-        <v>2704.569030060416</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V34" t="n">
-        <v>2438.589684881241</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W34" t="n">
-        <v>2438.589684881241</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1680.200975352922</v>
+        <v>1429.351531027837</v>
       </c>
       <c r="C35" t="n">
-        <v>1680.200975352922</v>
+        <v>1429.351531027837</v>
       </c>
       <c r="D35" t="n">
-        <v>1294.75984656959</v>
+        <v>1429.351531027837</v>
       </c>
       <c r="E35" t="n">
-        <v>892.1763216861347</v>
+        <v>1026.768006144382</v>
       </c>
       <c r="F35" t="n">
-        <v>475.2818832161124</v>
+        <v>609.8735676743594</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>196.7108121623625</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>196.7108121623625</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="U35" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="V35" t="n">
-        <v>2763.849575909295</v>
+        <v>2597.336020850345</v>
       </c>
       <c r="W35" t="n">
-        <v>2392.850540877582</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="X35" t="n">
-        <v>2076.691684432321</v>
+        <v>2226.336985818633</v>
       </c>
       <c r="Y35" t="n">
-        <v>1680.200975352922</v>
+        <v>1829.846276739234</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="C37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="D37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="E37" t="n">
-        <v>2337.603788027146</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R37" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S37" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>2543.520260189137</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>2493.162600167943</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V37" t="n">
-        <v>2493.162600167943</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y37" t="n">
-        <v>2493.162600167943</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2073.376476849992</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C38" t="n">
-        <v>1680.200975352922</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D38" t="n">
-        <v>1294.75984656959</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E38" t="n">
-        <v>892.1763216861347</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F38" t="n">
-        <v>475.2818832161124</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G38" t="n">
         <v>62.11912770411553</v>
@@ -7210,16 +7210,16 @@
         <v>3105.956385205776</v>
       </c>
       <c r="V38" t="n">
-        <v>2763.849575909295</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W38" t="n">
-        <v>2392.850540877582</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X38" t="n">
-        <v>2392.850540877582</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y38" t="n">
-        <v>2392.850540877582</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="39">
@@ -7256,22 +7256,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>389.6501804251534</v>
+        <v>217.677939844913</v>
       </c>
       <c r="C40" t="n">
-        <v>219.4450624911426</v>
+        <v>217.677939844913</v>
       </c>
       <c r="D40" t="n">
-        <v>219.4450624911426</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E40" t="n">
-        <v>219.4450624911426</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
         <v>62.11912770411553</v>
@@ -7365,19 +7365,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="U40" t="n">
-        <v>963.5661502456679</v>
+        <v>766.9876870929112</v>
       </c>
       <c r="V40" t="n">
-        <v>697.5868050664922</v>
+        <v>501.0083419137354</v>
       </c>
       <c r="W40" t="n">
-        <v>697.5868050664922</v>
+        <v>217.677939844913</v>
       </c>
       <c r="X40" t="n">
-        <v>697.5868050664922</v>
+        <v>217.677939844913</v>
       </c>
       <c r="Y40" t="n">
-        <v>574.8581991164547</v>
+        <v>217.677939844913</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1564.910276384764</v>
+        <v>2073.376476849992</v>
       </c>
       <c r="C41" t="n">
-        <v>1171.734774887694</v>
+        <v>1680.200975352922</v>
       </c>
       <c r="D41" t="n">
-        <v>786.2936461043621</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>383.7101212209066</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>62.11912770411553</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
         <v>62.11912770411553</v>
@@ -7435,28 +7435,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3067.963471491298</v>
+        <v>3086.824430068915</v>
       </c>
       <c r="S41" t="n">
-        <v>3067.963471491298</v>
+        <v>3086.824430068915</v>
       </c>
       <c r="T41" t="n">
-        <v>3067.963471491298</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="U41" t="n">
-        <v>3067.963471491298</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="V41" t="n">
-        <v>2725.856662194817</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="W41" t="n">
-        <v>2354.857627163104</v>
+        <v>2863.323827628332</v>
       </c>
       <c r="X41" t="n">
-        <v>1965.405022096161</v>
+        <v>2473.871222561389</v>
       </c>
       <c r="Y41" t="n">
-        <v>1965.405022096161</v>
+        <v>2473.871222561389</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>175.2341099238429</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M42" t="n">
-        <v>803.0057595505241</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.783730761083</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1975.304013352064</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="D43" t="n">
         <v>62.11912770411553</v>
@@ -7599,22 +7599,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>847.6175868584073</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U43" t="n">
-        <v>562.1787951003082</v>
+        <v>767.0619880495989</v>
       </c>
       <c r="V43" t="n">
-        <v>296.1994499211324</v>
+        <v>501.0826428704231</v>
       </c>
       <c r="W43" t="n">
-        <v>296.1994499211324</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>217.7522408016008</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2116.78563018664</v>
+        <v>1529.504167848504</v>
       </c>
       <c r="C44" t="n">
-        <v>1723.610128689571</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D44" t="n">
-        <v>1338.168999906239</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>935.5854750227832</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
-        <v>518.6910365527609</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>106.1331072396295</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>106.1331072396295</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>270.9233280874829</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130481</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>1292.177839612515</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1942.267504401615</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818616</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>3115.769891361764</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130628</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3798.061577393165</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3645.330499340861</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T44" t="n">
-        <v>3645.330499340861</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U44" t="n">
-        <v>3645.330499340861</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V44" t="n">
-        <v>3303.22369004438</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W44" t="n">
-        <v>3303.22369004438</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X44" t="n">
-        <v>2913.771084977436</v>
+        <v>2326.4896226393</v>
       </c>
       <c r="Y44" t="n">
-        <v>2517.280375898037</v>
+        <v>1929.998913559901</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>860.7363532310205</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>710.0821227911127</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>579.9931554125931</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>443.5466645234808</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.1148584066127</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>199.3786510244077</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>114.206631213339</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>75.96123154786331</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>313.8895596758473</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>313.8895596758473</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>1022.025029968186</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
-        <v>1760.293813047411</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O45" t="n">
-        <v>2352.277072610002</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P45" t="n">
-        <v>2352.277072610002</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
-        <v>2352.277072610002</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2348.452270245762</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2219.532517101843</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2043.853082895972</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1833.811229742109</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1611.271228113176</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1381.153982246463</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1191.846904596475</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>1012.532687671982</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>455.3751682881314</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="C46" t="n">
-        <v>455.3751682881314</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="D46" t="n">
-        <v>299.7420551906462</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="E46" t="n">
-        <v>299.7420551906462</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F46" t="n">
-        <v>299.7420551906462</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G46" t="n">
-        <v>131.7593055010172</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H46" t="n">
-        <v>131.7593055010172</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>75.96123154786331</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>188.689628895047</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>392.3501285422311</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>620.3235645955781</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>844.2039549289384</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>1044.493221405438</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>1196.529419371396</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>1222.217555045142</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>1222.217555045142</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>1024.129563703548</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>1024.129563703548</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>738.7055703569538</v>
+        <v>766.9074259906197</v>
       </c>
       <c r="V46" t="n">
-        <v>738.7055703569538</v>
+        <v>500.9280808114439</v>
       </c>
       <c r="W46" t="n">
-        <v>455.3751682881314</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="X46" t="n">
-        <v>455.3751682881314</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="Y46" t="n">
-        <v>455.3751682881314</v>
+        <v>217.5976787426216</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>192.2856137303851</v>
       </c>
       <c r="M3" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N3" t="n">
-        <v>345.597757882153</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8297,7 +8297,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
@@ -8306,16 +8306,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N6" t="n">
-        <v>258.8480380294549</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,16 +8531,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M9" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>747.7741039759435</v>
@@ -8549,10 +8549,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>287.615168339707</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8768,10 +8768,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9479,28 +9479,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9716,10 +9716,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
@@ -9728,13 +9728,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>90.98815315591399</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,7 +10190,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10202,16 +10202,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O30" t="n">
-        <v>464.9323088406971</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10664,19 +10664,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>258.8480380294549</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10685,7 +10685,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10904,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>290.5921503773105</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>90.06034685691823</v>
@@ -11150,13 +11150,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>301.8549375253374</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>259.5940292362812</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>52.17609846406374</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>278.1951335262041</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>20.49834389404781</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>726.4998994499999</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>25.90589819983273</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>50.09263685995639</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22546,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>60.30642746738482</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>228.5753904689375</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -22606,10 +22606,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22761,16 +22761,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -22786,25 +22786,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>321.4421064042667</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>90.19647568997044</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -22852,7 +22852,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -22947,7 +22947,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -23001,16 +23001,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>182.0209374894507</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.919369698601145</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>65.74197678056828</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23184,25 +23184,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>166.2222135437759</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23244,10 +23244,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>334.689628441424</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
         <v>320.8422199291742</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>114.4597259954084</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,25 +23421,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,16 +23469,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23503,16 +23503,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4.997479214243533</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>137.9646884673042</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>47.60838107434068</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>56.63048077364817</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X19" t="n">
         <v>231.7395189948467</v>
@@ -23974,16 +23974,16 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>355.3161320682344</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
@@ -24016,25 +24016,25 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>150.0538274582852</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.919194871557</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24180,19 +24180,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24256,7 +24256,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>164.1234033749066</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
         <v>221.2655964161775</v>
@@ -24265,10 +24265,10 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>88.04528326640968</v>
       </c>
       <c r="E25" t="n">
         <v>154.0032240193895</v>
@@ -24420,7 +24420,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>104.0045570257511</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>262.1704412156288</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>0.9625471305732347</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>92.68333097786581</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>87.89226682802024</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24651,19 +24651,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
         <v>412.725494085322</v>
@@ -24697,7 +24697,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>136.9537457384598</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>92.9756896501234</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>239.2546686415367</v>
       </c>
     </row>
     <row r="30">
@@ -24849,19 +24849,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>115.267928104506</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>165.708020294746</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24922,16 +24922,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.0174663939489</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>164.8484195083599</v>
@@ -24973,13 +24973,13 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>55.14830411613877</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T34" t="n">
-        <v>118.5727835600599</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,10 +25137,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>3.707978124795318</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,7 +25204,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>221.2655964161775</v>
@@ -25219,7 +25219,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>72.56081113546549</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25320,10 +25320,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>89.72117673905606</v>
       </c>
       <c r="G37" t="n">
         <v>166.5715133615489</v>
@@ -25332,7 +25332,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>232.7303204195364</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80.21047486696841</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,7 +25405,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H38" t="n">
         <v>320.8422199291742</v>
@@ -25450,16 +25450,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25605,19 +25605,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>87.97172531928891</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.37962068098597</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -25639,10 +25639,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>94.35041050369887</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.67234899184084</v>
       </c>
       <c r="S41" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -25839,19 +25839,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>118.5727835600602</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>88.04528326640971</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>156.8468684159734</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831355</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
-        <v>83.99920239217123</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
@@ -26028,7 +26028,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
         <v>154.0032240193895</v>
@@ -26037,16 +26037,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H46" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>68.44611892799729</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685223</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>110.5851438286122</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>232.2142445012335</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>87.89226682802033</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>674826.2535106601</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>674826.2535106605</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>674826.2535106605</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106605</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>674826.2535106604</v>
+        <v>674826.2535106605</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>674826.2535106605</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>674826.2535106603</v>
+        <v>674826.2535106604</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>756963.9863598592</v>
+        <v>674826.2535106603</v>
       </c>
     </row>
   </sheetData>
@@ -26328,13 +26328,13 @@
         <v>254445.3498136761</v>
       </c>
       <c r="G2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="H2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="I2" t="n">
-        <v>254445.3498136762</v>
+        <v>254445.349813676</v>
       </c>
       <c r="J2" t="n">
         <v>254445.3498136761</v>
@@ -26346,7 +26346,7 @@
         <v>254445.3498136761</v>
       </c>
       <c r="M2" t="n">
-        <v>254445.3498136761</v>
+        <v>254445.349813676</v>
       </c>
       <c r="N2" t="n">
         <v>254445.3498136761</v>
@@ -26355,7 +26355,7 @@
         <v>254445.3498136761</v>
       </c>
       <c r="P2" t="n">
-        <v>287983.2599112163</v>
+        <v>254445.3498136761</v>
       </c>
     </row>
     <row r="3">
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>140033.8089230486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26459,7 +26459,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="P4" t="n">
-        <v>37642.66253781081</v>
+        <v>39261.69958392653</v>
       </c>
     </row>
     <row r="5">
@@ -26478,13 +26478,13 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="F5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="G5" t="n">
-        <v>47210.53705512779</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
         <v>47210.5370551278</v>
@@ -26511,7 +26511,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
-        <v>60977.55903357439</v>
+        <v>47210.5370551278</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-125873.842245207</v>
+        <v>-126404.9372770722</v>
       </c>
       <c r="C6" t="n">
-        <v>134345.5131746218</v>
+        <v>133814.4181427565</v>
       </c>
       <c r="D6" t="n">
-        <v>134345.5131746218</v>
+        <v>133814.4181427566</v>
       </c>
       <c r="E6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="F6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="G6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427565</v>
       </c>
       <c r="H6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427565</v>
       </c>
       <c r="I6" t="n">
-        <v>167973.1131746219</v>
+        <v>167442.0181427565</v>
       </c>
       <c r="J6" t="n">
-        <v>-35190.59993807322</v>
+        <v>-35721.6949699384</v>
       </c>
       <c r="K6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="L6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="M6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427565</v>
       </c>
       <c r="N6" t="n">
-        <v>167973.1131746217</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="O6" t="n">
-        <v>167973.1131746218</v>
+        <v>167442.0181427566</v>
       </c>
       <c r="P6" t="n">
-        <v>49329.22941678256</v>
+        <v>167442.0181427566</v>
       </c>
     </row>
   </sheetData>
@@ -26779,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26795,16 +26795,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="D4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
@@ -26831,7 +26831,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>949.5153943482914</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>148.9460117980863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>173.0262980468473</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767285</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>6.132234546038798</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>23.0843864114401</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999129</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798323</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367443</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>105.1401664086059</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>106.841444221757</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>100.887346111939</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529473</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089687</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733283</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657847</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.62115041867788</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013828</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713555</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447039</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938658</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926961</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085043</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287042</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>81.17557642995705</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259172</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425273</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948193</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.8955162959576</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031803</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716649956</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268314</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048393</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162212</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566042</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673275</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530684</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064824</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927712</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089184</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257687</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322372</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937278</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.49084778151104</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>12.07683564513664</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097236</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>1.147616812214763</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997572</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>102.2252668734669</v>
       </c>
       <c r="M3" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N3" t="n">
-        <v>260.2256450279863</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
@@ -35026,16 +35026,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N6" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M9" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>662.4019911217769</v>
@@ -35269,10 +35269,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5318035203924</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35500,16 +35500,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
@@ -36448,13 +36448,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36922,16 +36922,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O30" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37405,7 +37405,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>200.5318035203923</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37870,13 +37870,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>216.4828246711707</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>172.5106644169666</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>196.9314106460803</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>438.7752394197628</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>592.7949742418854</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M44" t="n">
-        <v>656.6562270596975</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>639.9841549666681</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
-        <v>545.3717914577253</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>437.8095533018824</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.373967941956</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>240.3316445737212</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>715.2883538306451</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N45" t="n">
-        <v>745.7260435143686</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>597.9628884470619</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>113.8670680274582</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>205.7176764112971</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>230.2761980336838</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>226.1418084175357</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>202.3123903803026</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>153.571917137331</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166352</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
